--- a/biology/Médecine/La_Main_d'Horus/La_Main_d'Horus.xlsx
+++ b/biology/Médecine/La_Main_d'Horus/La_Main_d'Horus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Main_d%27Horus</t>
+          <t>La_Main_d'Horus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Main d'Horus (ホルスの手, Horus no Te?) est un seinen manga de Tatsuya Seki, prépublié entre octobre 2011 et 2013 dans le magazine Weekly Manga Goraku[1] et publié par l'éditeur Nihon Bungeisha en trois volumes reliés entre décembre 2012 et juin 2013[2]. La version française est éditée par Komikku Éditions en trois volumes sortis entre mai 2014 et novembre 2014[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Main d'Horus (ホルスの手, Horus no Te?) est un seinen manga de Tatsuya Seki, prépublié entre octobre 2011 et 2013 dans le magazine Weekly Manga Goraku et publié par l'éditeur Nihon Bungeisha en trois volumes reliés entre décembre 2012 et juin 2013. La version française est éditée par Komikku Éditions en trois volumes sortis entre mai 2014 et novembre 2014.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Main_d%27Horus</t>
+          <t>La_Main_d'Horus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Main_d%27Horus</t>
+          <t>La_Main_d'Horus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,7 +561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Main_d%27Horus</t>
+          <t>La_Main_d'Horus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,6 +580,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
